--- a/Schedules/CM_course_schedule.xlsx
+++ b/Schedules/CM_course_schedule.xlsx
@@ -492,7 +492,7 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>13
-AV-300-13804-Wyman</t>
+AV-300-13804-WymanEAX-010</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,35 +513,35 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>3
-AV-410-03809-Balch
-CM-200-03811-Mohamed Ali</t>
+AV-410-03809-BalchEAX-011
+CM-200-03811-Mohamed AliIDE-318</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>4
-AV-306-04805-Breuder
-CM-375-04808-Regnery</t>
+AV-306-04805-BreuderEAX-009
+CM-375-04808-RegneryEAX-017</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>3
-AV-410-03809-Balch
-CM-200-03811-Mohamed Ali</t>
+AV-410-03809-BalchEAX-011
+CM-200-03811-Mohamed AliIDE-318</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>14
-AT-410-14801-Wyman</t>
+AT-410-14801-WymanEAX-012</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>4.0
-AV-306-04805-Breuder
-CM-375-04808-Regnery</t>
+AV-306-04805-BreuderEAX-009
+CM-375-04808-RegneryEAX-017</t>
         </is>
       </c>
     </row>
@@ -557,18 +557,18 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>5
-AM-201-05816-Balch
-CM-320-05815-nan
-CM-320-05815-nan</t>
+AM-201-05816-BalchEAX-011
+CM-320-05815-nanEAX-015
+CM-320-05815-nanEAX-016</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>13
-AV-300-13804-Wyman
-CSM-225-13810-Trottier
-CSM-199-13805-nan
-CSM-199-13805-nan</t>
+AV-300-13804-WymanEAX-010
+CSM-225-13810-TrottierEAX-017
+CSM-199-13805-nanEAX-015
+CSM-199-13805-nanEAX-016</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -579,11 +579,11 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>5
-AM-201-05816-Balch
-AT-410L-05804-Adelizzi
-AT-410L-05804-Adelizzi
-CM-320-05815-nan
-CM-320-05815-nan</t>
+AM-201-05816-BalchEAX-011
+AT-410L-05804-AdelizziEAX-022
+AT-410L-05804-AdelizziEAX-023
+CM-320-05815-nanEAX-015
+CM-320-05815-nanEAX-016</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,13 +609,13 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>14
-AT-410-14801-Wyman</t>
+AT-410-14801-WymanEAX-012</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>8
-AV-205-08815-LaFauci</t>
+AV-205-08815-LaFauciIDE-209</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -626,7 +626,7 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>8.0
-AV-205-08815-LaFauci</t>
+AV-205-08815-LaFauciIDE-209</t>
         </is>
       </c>
     </row>
@@ -642,9 +642,9 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>9
-AM-220-09801-Wyman
-CSM-305-09814-nan
-CSM-305-09814-nan</t>
+AM-220-09801-WymanEAX-009
+CSM-305-09814-nanEAX-015
+CSM-305-09814-nanEAX-016</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -660,7 +660,7 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>9
-AM-220-09801-Wyman</t>
+AM-220-09801-WymanEAX-009</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -691,14 +691,14 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>12
-AM-340L-12802-Moon</t>
+AM-340L-12802-MoonIDE-317</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>11
-CSM-199-11810-nan
-CSM-199-11810-nan</t>
+CSM-199-11810-nanEAX-015
+CSM-199-11810-nanEAX-016</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -719,31 +719,31 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>20
-CM-410-20802-Robblee</t>
+CM-410-20802-RobbleeIDE-318</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>21
-AM-340-21802-Moon
-CSM-300-21804-Michienzi
-CSM-300-21804-Michienzi
-CM-415-21803-Rounds</t>
+AM-340-21802-MoonIDE-317
+CSM-300-21804-MichienziEAX-015
+CSM-300-21804-MichienziEAX-016
+CM-415-21803-RoundsIDE-318</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>20
-CM-400-20801-Robblee
-CSM-220-20806-Michienzi
-CSM-220-20806-Michienzi</t>
+CM-400-20801-RobbleeIDE-317
+CSM-220-20806-MichienziEAX-015
+CSM-220-20806-MichienziEAX-016</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>21
-AM-340-21802-Moon
-CM-415-21803-Rounds</t>
+AM-340-21802-MoonIDE-317
+CM-415-21803-RoundsIDE-318</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">

--- a/Schedules/CM_course_schedule.xlsx
+++ b/Schedules/CM_course_schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>TIME</t>
   </si>
@@ -62,12 +62,10 @@
   </si>
   <si>
     <t>3
-AV-410-03809-Balch-EAX-011
 CM-200-03811-Mohamed Ali-IDE-318</t>
   </si>
   <si>
     <t>5
-AM-201-05816-Balch-EAX-011
 CM-320-05815-nan-EAX-015
 CM-320-05815-nan-EAX-016</t>
   </si>
@@ -76,7 +74,6 @@
   </si>
   <si>
     <t>9
-AM-220-09801-Wyman-EAX-009
 CSM-305-09814-nan-EAX-015
 CSM-305-09814-nan-EAX-016</t>
   </si>
@@ -98,19 +95,16 @@
   </si>
   <si>
     <t>4
-AV-306-04805-Breuder-EAX-009
 CM-375-04808-Regnery-EAX-017</t>
   </si>
   <si>
     <t>13
-AV-300-13804-Wyman-EAX-010
 CSM-225-13810-Trottier-EAX-017
 CSM-199-13805-nan-EAX-015
 CSM-199-13805-nan-EAX-016</t>
   </si>
   <si>
-    <t>14
-AT-410-14801-Wyman-EAX-012</t>
+    <t>14</t>
   </si>
   <si>
     <t>10</t>
@@ -120,7 +114,6 @@
   </si>
   <si>
     <t>21
-AM-340-21802-Moon-IDE-317
 CSM-300-21804-Michienzi-EAX-015
 CSM-300-21804-Michienzi-EAX-016
 CM-415-21803-Rounds-IDE-318</t>
@@ -135,12 +128,10 @@
     <t>6</t>
   </si>
   <si>
-    <t>8
-AV-205-08815-LaFauci-IDE-209</t>
-  </si>
-  <si>
-    <t>12
-AM-340L-12802-Moon-IDE-317</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>20
@@ -149,20 +140,10 @@
 CSM-220-20806-Michienzi-EAX-016</t>
   </si>
   <si>
-    <t>13
-AV-300-13804-Wyman-EAX-010</t>
-  </si>
-  <si>
-    <t>5
-AM-201-05816-Balch-EAX-011
-AT-410L-05804-Adelizzi-EAX-022
-AT-410L-05804-Adelizzi-EAX-023
-CM-320-05815-nan-EAX-015
-CM-320-05815-nan-EAX-016</t>
-  </si>
-  <si>
-    <t>9
-AM-220-09801-Wyman-EAX-009</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>11
@@ -171,7 +152,6 @@
   </si>
   <si>
     <t>21
-AM-340-21802-Moon-IDE-317
 CM-415-21803-Rounds-IDE-318</t>
   </si>
   <si>
@@ -179,15 +159,13 @@
   </si>
   <si>
     <t>4.0
-AV-306-04805-Breuder-EAX-009
 CM-375-04808-Regnery-EAX-017</t>
   </si>
   <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>8.0
-AV-205-08815-LaFauci-IDE-209</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>10.0</t>
@@ -597,7 +575,7 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -617,7 +595,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -634,10 +612,10 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -657,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -674,10 +652,10 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -694,10 +672,10 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -714,10 +692,10 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -737,7 +715,7 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -757,7 +735,7 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Schedules/CM_course_schedule.xlsx
+++ b/Schedules/CM_course_schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>TIME</t>
   </si>
@@ -73,14 +73,14 @@
     <t>7</t>
   </si>
   <si>
-    <t>9
+    <t>9</t>
+  </si>
+  <si>
+    <t>11
 CSM-305-09814-nan-EAX-015
 CSM-305-09814-nan-EAX-016</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>20
 CM-410-20802-Robblee-IDE-318</t>
   </si>
@@ -98,15 +98,15 @@
 CM-375-04808-Regnery-EAX-017</t>
   </si>
   <si>
-    <t>13
+    <t>13</t>
+  </si>
+  <si>
+    <t>14
 CSM-225-13810-Trottier-EAX-017
 CSM-199-13805-nan-EAX-015
 CSM-199-13805-nan-EAX-016</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -114,12 +114,12 @@
   </si>
   <si>
     <t>21
+CM-415-21803-Rounds-IDE-318</t>
+  </si>
+  <si>
+    <t>23
 CSM-300-21804-Michienzi-EAX-015
-CSM-300-21804-Michienzi-EAX-016
-CM-415-21803-Rounds-IDE-318</t>
-  </si>
-  <si>
-    <t>23</t>
+CSM-300-21804-Michienzi-EAX-016</t>
   </si>
   <si>
     <t>25</t>
@@ -135,24 +135,27 @@
   </si>
   <si>
     <t>20
-CM-400-20801-Robblee-IDE-317
+CM-400-20801-Robblee-IDE-317</t>
+  </si>
+  <si>
+    <t>22
 CSM-220-20806-Michienzi-EAX-015
 CSM-220-20806-Michienzi-EAX-016</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11
+    <t>14</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>21
+CM-415-21803-Rounds-IDE-318
 CSM-199-11810-nan-EAX-015
 CSM-199-11810-nan-EAX-016</t>
   </si>
   <si>
-    <t>21
-CM-415-21803-Rounds-IDE-318</t>
+    <t>23</t>
   </si>
   <si>
     <t>2.0</t>
@@ -572,10 +575,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -592,10 +595,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -615,7 +618,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -635,7 +638,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -652,10 +655,10 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -675,7 +678,7 @@
         <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -695,7 +698,7 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -709,13 +712,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -735,7 +738,7 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Schedules/CM_course_schedule.xlsx
+++ b/Schedules/CM_course_schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>TIME</t>
   </si>
@@ -73,7 +73,9 @@
     <t>7</t>
   </si>
   <si>
-    <t>9</t>
+    <t>9
+CSM-305-09814-nan-EAX-015
+CSM-305-09814-nan-EAX-016</t>
   </si>
   <si>
     <t>11
@@ -98,7 +100,10 @@
 CM-375-04808-Regnery-EAX-017</t>
   </si>
   <si>
-    <t>13</t>
+    <t>13
+CSM-225-13810-Trottier-EAX-017
+CSM-199-13805-nan-EAX-015
+CSM-199-13805-nan-EAX-016</t>
   </si>
   <si>
     <t>14
@@ -114,6 +119,8 @@
   </si>
   <si>
     <t>21
+CSM-300-21804-Michienzi-EAX-015
+CSM-300-21804-Michienzi-EAX-016
 CM-415-21803-Rounds-IDE-318</t>
   </si>
   <si>
@@ -135,7 +142,9 @@
   </si>
   <si>
     <t>20
-CM-400-20801-Robblee-IDE-317</t>
+CM-400-20801-Robblee-IDE-317
+CSM-220-20806-Michienzi-EAX-015
+CSM-220-20806-Michienzi-EAX-016</t>
   </si>
   <si>
     <t>22
@@ -143,10 +152,18 @@
 CSM-220-20806-Michienzi-EAX-016</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>11</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11
+CSM-199-11810-nan-EAX-015
+CSM-199-11810-nan-EAX-016</t>
   </si>
   <si>
     <t>21
@@ -575,10 +592,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -595,10 +612,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -618,7 +635,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -638,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -655,10 +672,10 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -675,10 +692,10 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -695,10 +712,10 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -715,10 +732,10 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -738,7 +755,7 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Schedules/CM_course_schedule.xlsx
+++ b/Schedules/CM_course_schedule.xlsx
@@ -79,8 +79,8 @@
   </si>
   <si>
     <t>11
-CSM-305-09814-nan-EAX-015
-CSM-305-09814-nan-EAX-016</t>
+CSM-305-09814-TBD-EAX-015
+CSM-305-09814-TBD-EAX-016</t>
   </si>
   <si>
     <t>20
@@ -108,8 +108,8 @@
   <si>
     <t>14
 CSM-225-13810-Trottier-EAX-017
-CSM-199-13805-nan-EAX-015
-CSM-199-13805-nan-EAX-016</t>
+CSM-199-13805-TBD-EAX-015
+CSM-199-13805-TBD-EAX-016</t>
   </si>
   <si>
     <t>10</t>
@@ -168,8 +168,8 @@
   <si>
     <t>21
 CM-415-21803-Rounds-IDE-318
-CSM-199-11810-nan-EAX-015
-CSM-199-11810-nan-EAX-016</t>
+CSM-199-11810-TBD-EAX-015
+CSM-199-11810-TBD-EAX-016</t>
   </si>
   <si>
     <t>23</t>

--- a/Schedules/CM_course_schedule.xlsx
+++ b/Schedules/CM_course_schedule.xlsx
@@ -66,16 +66,16 @@
   </si>
   <si>
     <t>5
-CM-320-05815-nan-EAX-015
-CM-320-05815-nan-EAX-016</t>
+CM-320-05815-TBD-EAX-015
+CM-320-05815-TBD-EAX-016</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
     <t>9
-CSM-305-09814-nan-EAX-015
-CSM-305-09814-nan-EAX-016</t>
+CSM-305-09814-TBD-EAX-015
+CSM-305-09814-TBD-EAX-016</t>
   </si>
   <si>
     <t>11
@@ -102,8 +102,8 @@
   <si>
     <t>13
 CSM-225-13810-Trottier-EAX-017
-CSM-199-13805-nan-EAX-015
-CSM-199-13805-nan-EAX-016</t>
+CSM-199-13805-TBD-EAX-015
+CSM-199-13805-TBD-EAX-016</t>
   </si>
   <si>
     <t>14
@@ -162,8 +162,8 @@
   </si>
   <si>
     <t>11
-CSM-199-11810-nan-EAX-015
-CSM-199-11810-nan-EAX-016</t>
+CSM-199-11810-TBD-EAX-015
+CSM-199-11810-TBD-EAX-016</t>
   </si>
   <si>
     <t>21

--- a/Schedules/CM_course_schedule.xlsx
+++ b/Schedules/CM_course_schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>TIME</t>
   </si>
@@ -173,28 +173,6 @@
   </si>
   <si>
     <t>23</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>4.0
-CM-375-04808-Regnery-EAX-017</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>nan</t>
   </si>
 </sst>
 </file>
@@ -595,7 +573,7 @@
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -615,7 +593,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -635,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -655,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -675,7 +653,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -695,7 +673,7 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -714,9 +692,6 @@
       <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -734,9 +709,6 @@
       <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
@@ -753,9 +725,6 @@
       </c>
       <c r="E10" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
